--- a/backend/analytics_data/Sample Data SHG Data Capture.xlsx
+++ b/backend/analytics_data/Sample Data SHG Data Capture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A847EAC2-98DB-48D8-8250-9F39F4720FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D599953C-2759-403D-BE32-A1EBFFD94D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="45">
   <si>
     <t>Year</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>October</t>
-  </si>
-  <si>
-    <t>NTR</t>
-  </si>
-  <si>
-    <t>Vijaywada East</t>
   </si>
   <si>
     <t>Krishna</t>
@@ -251,10 +245,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,31 +596,31 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -643,19 +637,20 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>10100125101</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H4" si="0">G2-5</f>
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>10100122101</v>
-      </c>
-      <c r="G2">
-        <v>26</v>
-      </c>
-      <c r="H2">
-        <v>21</v>
-      </c>
       <c r="I2">
-        <f>G2-H2</f>
+        <f t="shared" ref="I2:I5" si="1">G2-H2</f>
         <v>5</v>
       </c>
       <c r="J2">
@@ -665,8 +660,8 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <f>H2</f>
-        <v>21</v>
+        <f t="shared" ref="N2:N27" si="2">H2</f>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -683,20 +678,21 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>10100122102</v>
+        <v>10100125102</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H3">
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="I3">
-        <f>G3-H3</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -704,9 +700,12 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
       <c r="N3">
-        <f>H3</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -723,30 +722,31 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>10100122103</v>
+        <v>10100125103</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="I4">
-        <f>G4-H4</f>
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
       </c>
       <c r="N4">
-        <f>H4</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -763,36 +763,33 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>10100122104</v>
+        <v>10100125104</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I5">
-        <f>G5-H5</f>
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
       <c r="N5">
-        <f>H5</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -809,20 +806,19 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>10100122105</v>
+        <v>10100125105</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H6">
-        <f>G6-5</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I11" si="0">G6-H6</f>
+        <f>G6-H6</f>
         <v>5</v>
       </c>
       <c r="J6">
@@ -832,8 +828,8 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <f>H6</f>
-        <v>17</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -850,34 +846,30 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7">
-        <v>10100122106</v>
+        <v>10100125106</v>
       </c>
       <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
         <v>18</v>
       </c>
-      <c r="H7">
-        <f t="shared" ref="H7:H11" si="1">G7-5</f>
-        <v>13</v>
-      </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>G7-H7</f>
+        <v>2</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="N7">
-        <f>H7</f>
-        <v>13</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -888,26 +880,25 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>10100125101</v>
+        <v>10100128101</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>G8-H8</f>
         <v>5</v>
       </c>
       <c r="J8">
@@ -917,8 +908,8 @@
         <v>3</v>
       </c>
       <c r="N8">
-        <f>H8</f>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -929,27 +920,26 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>10100125102</v>
+        <v>10100128102</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>G9-H9</f>
+        <v>6</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -958,11 +948,11 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <f>H9</f>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -973,26 +963,26 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>10100125103</v>
+        <v>10100128103</v>
       </c>
       <c r="G10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>G10-5</f>
+        <v>17</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I11" si="3">G10-H10</f>
         <v>5</v>
       </c>
       <c r="J10">
@@ -1002,8 +992,8 @@
         <v>3</v>
       </c>
       <c r="N10">
-        <f>H10</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1014,26 +1004,26 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>10100125104</v>
+        <v>10100128104</v>
       </c>
       <c r="G11">
+        <v>18</v>
+      </c>
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="H11">
-        <v>11</v>
-      </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1044,9 +1034,12 @@
       <c r="L11">
         <v>1</v>
       </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
       <c r="N11">
-        <f>H11</f>
-        <v>11</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,22 +1050,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>10100125105</v>
+        <v>10100128105</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I12">
         <f>G12-H12</f>
@@ -1085,8 +1078,8 @@
         <v>3</v>
       </c>
       <c r="N12">
-        <f>H12</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1097,16 +1090,16 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>10100125106</v>
+        <v>10100128106</v>
       </c>
       <c r="G13">
         <v>20</v>
@@ -1125,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="N13">
-        <f>H13</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -1137,16 +1130,16 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F14">
-        <v>10100128101</v>
+        <v>10100129101</v>
       </c>
       <c r="G14">
         <v>28</v>
@@ -1165,7 +1158,7 @@
         <v>3</v>
       </c>
       <c r="N14">
-        <f>H14</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -1177,22 +1170,22 @@
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>10100128102</v>
+        <v>10100129102</v>
       </c>
       <c r="G15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15">
         <f>G15-H15</f>
@@ -1208,8 +1201,8 @@
         <v>4</v>
       </c>
       <c r="N15">
-        <f>H15</f>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16">
-        <v>10100128103</v>
+        <v>10100129103</v>
       </c>
       <c r="G16">
         <v>22</v>
@@ -1239,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="I16">
-        <f t="shared" ref="I16:I21" si="2">G16-H16</f>
+        <f t="shared" ref="I16:I17" si="4">G16-H16</f>
         <v>5</v>
       </c>
       <c r="J16">
@@ -1249,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="N16">
-        <f>H16</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -1261,16 +1254,16 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17">
-        <v>10100128104</v>
+        <v>10100129104</v>
       </c>
       <c r="G17">
         <v>18</v>
@@ -1279,23 +1272,23 @@
         <v>14</v>
       </c>
       <c r="I17">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f>H17</f>
         <v>14</v>
       </c>
     </row>
@@ -1307,22 +1300,22 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>10100128105</v>
+        <v>10100129105</v>
       </c>
       <c r="G18">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I18">
         <f>G18-H18</f>
@@ -1335,8 +1328,8 @@
         <v>3</v>
       </c>
       <c r="N18">
-        <f>H18</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,16 +1340,16 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19">
-        <v>10100128106</v>
+        <v>10100129106</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -1375,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="N19">
-        <f>H19</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -1387,16 +1380,16 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20">
-        <v>10100129101</v>
+        <v>10100115101</v>
       </c>
       <c r="G20">
         <v>28</v>
@@ -1408,14 +1401,14 @@
         <f>G20-H20</f>
         <v>5</v>
       </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
       </c>
       <c r="N20">
-        <f>H20</f>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -1427,39 +1420,42 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21">
-        <v>10100129102</v>
+        <v>10100115102</v>
       </c>
       <c r="G21">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <f>G21-H21</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <f>H21</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1470,16 +1466,16 @@
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22">
-        <v>10100129103</v>
+        <v>10100115103</v>
       </c>
       <c r="G22">
         <v>22</v>
@@ -1489,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I23" si="3">G22-H22</f>
+        <f t="shared" ref="I22:I24" si="5">G22-H22</f>
         <v>5</v>
       </c>
       <c r="J22">
@@ -1499,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="N22">
-        <f>H22</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
     </row>
@@ -1511,42 +1507,40 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>10100129104</v>
+        <v>10100115104</v>
       </c>
       <c r="G23">
         <v>18</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <f t="shared" ref="H23:H24" si="6">G23-5</f>
+        <v>13</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
       <c r="N23">
-        <f>H23</f>
-        <v>14</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1557,25 +1551,26 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F24">
-        <v>10100129105</v>
+        <v>10100115105</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="I24">
-        <f>G24-H24</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="J24">
@@ -1585,8 +1580,8 @@
         <v>3</v>
       </c>
       <c r="N24">
-        <f>H24</f>
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1597,26 +1592,26 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25">
-        <v>10100129106</v>
+        <v>10100115106</v>
       </c>
       <c r="G25">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I25">
         <f>G25-H25</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1624,9 +1619,12 @@
       <c r="L25">
         <v>1</v>
       </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
       <c r="N25">
-        <f>H25</f>
-        <v>18</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1637,36 +1635,37 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>10100117101</v>
+      </c>
+      <c r="G26">
+        <v>22</v>
+      </c>
+      <c r="H26">
+        <f>G26-5</f>
         <v>17</v>
       </c>
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26">
-        <v>10100115101</v>
-      </c>
-      <c r="G26">
-        <v>28</v>
-      </c>
-      <c r="H26">
-        <v>23</v>
-      </c>
       <c r="I26">
-        <f>G26-H26</f>
-        <v>5</v>
-      </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
+        <f t="shared" ref="I26:I27" si="7">G26-H26</f>
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
       </c>
       <c r="N26">
-        <f>H26</f>
-        <v>23</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -1677,32 +1676,32 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>10100117102</v>
+      </c>
+      <c r="G27">
         <v>18</v>
       </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27">
-        <v>10100115102</v>
-      </c>
-      <c r="G27">
-        <v>30</v>
-      </c>
       <c r="H27">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I27">
-        <f>G27-H27</f>
-        <v>10</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="J27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -1711,8 +1710,8 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <f>H27</f>
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -1723,26 +1722,25 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>10100117103</v>
+      </c>
+      <c r="G28">
         <v>19</v>
       </c>
-      <c r="F28">
-        <v>10100115103</v>
-      </c>
-      <c r="G28">
-        <v>22</v>
-      </c>
       <c r="H28">
-        <f>G28-5</f>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I28">
-        <f t="shared" ref="I28:I30" si="4">G28-H28</f>
+        <f>G28-H28</f>
         <v>5</v>
       </c>
       <c r="J28">
@@ -1752,8 +1750,8 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <f>H28</f>
-        <v>17</v>
+        <f t="shared" ref="N28:N61" si="8">H28</f>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1764,40 +1762,36 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>10100117104</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29">
         <v>18</v>
       </c>
-      <c r="E29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <v>10100115104</v>
-      </c>
-      <c r="G29">
+      <c r="I29">
+        <f>G29-H29</f>
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="8"/>
         <v>18</v>
-      </c>
-      <c r="H29">
-        <f t="shared" ref="H29:H30" si="5">G29-5</f>
-        <v>13</v>
-      </c>
-      <c r="I29">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <f>H29</f>
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1808,26 +1802,25 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>10100115105</v>
+        <v>10100117105</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f>G30-H30</f>
         <v>5</v>
       </c>
       <c r="J30">
@@ -1837,8 +1830,8 @@
         <v>3</v>
       </c>
       <c r="N30">
-        <f>H30</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1849,22 +1842,22 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>10100115106</v>
+        <v>10100117106</v>
       </c>
       <c r="G31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31">
         <f>G31-H31</f>
@@ -1880,8 +1873,8 @@
         <v>4</v>
       </c>
       <c r="N31">
-        <f>H31</f>
-        <v>24</v>
+        <f t="shared" si="8"/>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1892,16 +1885,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F32">
-        <v>10100117101</v>
+        <v>10100120101</v>
       </c>
       <c r="G32">
         <v>22</v>
@@ -1911,7 +1904,7 @@
         <v>17</v>
       </c>
       <c r="I32">
-        <f t="shared" ref="I32:I33" si="6">G32-H32</f>
+        <f t="shared" ref="I32:I33" si="9">G32-H32</f>
         <v>5</v>
       </c>
       <c r="J32">
@@ -1921,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="N32">
-        <f>H32</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
     </row>
@@ -1933,16 +1926,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33">
-        <v>10100117102</v>
+        <v>10100120102</v>
       </c>
       <c r="G33">
         <v>18</v>
@@ -1951,7 +1944,7 @@
         <v>14</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="J33">
@@ -1967,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <f>H33</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
     </row>
@@ -1979,22 +1972,22 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34">
+        <v>10100120103</v>
+      </c>
+      <c r="G34">
+        <v>26</v>
+      </c>
+      <c r="H34">
         <v>21</v>
-      </c>
-      <c r="E34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34">
-        <v>10100117103</v>
-      </c>
-      <c r="G34">
-        <v>19</v>
-      </c>
-      <c r="H34">
-        <v>14</v>
       </c>
       <c r="I34">
         <f>G34-H34</f>
@@ -2007,8 +2000,8 @@
         <v>3</v>
       </c>
       <c r="N34">
-        <f>H34</f>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2019,16 +2012,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F35">
-        <v>10100117104</v>
+        <v>10100120104</v>
       </c>
       <c r="G35">
         <v>20</v>
@@ -2047,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="N35">
-        <f>H35</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
     </row>
@@ -2059,16 +2052,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F36">
-        <v>10100117105</v>
+        <v>10100120105</v>
       </c>
       <c r="G36">
         <v>28</v>
@@ -2080,14 +2073,14 @@
         <f>G36-H36</f>
         <v>5</v>
       </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
       </c>
       <c r="N36">
-        <f>H36</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
     </row>
@@ -2099,39 +2092,40 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F37">
-        <v>10100117106</v>
+        <v>10100120106</v>
       </c>
       <c r="G37">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H37">
-        <v>23</v>
+        <f t="shared" ref="H37:H40" si="10">G37-5</f>
+        <v>13</v>
       </c>
       <c r="I37">
-        <f>G37-H37</f>
-        <v>6</v>
+        <f t="shared" ref="I37:I41" si="11">G37-H37</f>
+        <v>5</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37">
-        <v>4</v>
-      </c>
       <c r="N37">
-        <f>H37</f>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2142,26 +2136,26 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38">
-        <v>10100120101</v>
+        <v>10100112101</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H38">
-        <f>G38-5</f>
-        <v>17</v>
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="I38">
-        <f t="shared" ref="I38:I39" si="7">G38-H38</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="J38">
@@ -2171,8 +2165,8 @@
         <v>3</v>
       </c>
       <c r="N38">
-        <f>H38</f>
-        <v>17</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2183,42 +2177,40 @@
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39">
-        <v>10100120102</v>
+        <v>10100112102</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H39">
-        <v>14</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="I39">
-        <f t="shared" si="7"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>5</v>
       </c>
       <c r="J39">
         <v>1</v>
       </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <f>H39</f>
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2229,25 +2221,26 @@
         <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40">
-        <v>10100120103</v>
+        <v>10100112103</v>
       </c>
       <c r="G40">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H40">
-        <v>21</v>
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="I40">
-        <f>G40-H40</f>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="J40">
@@ -2257,8 +2250,8 @@
         <v>3</v>
       </c>
       <c r="N40">
-        <f>H40</f>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -2269,36 +2262,39 @@
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41">
-        <v>10100120104</v>
+        <v>10100112104</v>
       </c>
       <c r="G41">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H41">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I41">
-        <f>G41-H41</f>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="N41">
-        <f>H41</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
@@ -2309,36 +2305,36 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42">
-        <v>10100120105</v>
+        <v>10100112105</v>
       </c>
       <c r="G42">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I42">
         <f>G42-H42</f>
         <v>5</v>
       </c>
-      <c r="L42">
-        <v>3</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
       </c>
       <c r="N42">
-        <f>H42</f>
-        <v>23</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2349,40 +2345,36 @@
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F43">
-        <v>10100120106</v>
+        <v>10100112105</v>
       </c>
       <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43">
         <v>18</v>
       </c>
-      <c r="H43">
-        <f t="shared" ref="H43:H46" si="8">G43-5</f>
-        <v>13</v>
-      </c>
       <c r="I43">
-        <f t="shared" ref="I43:I47" si="9">G43-H43</f>
-        <v>5</v>
+        <f>G43-H43</f>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="N43">
-        <f>H43</f>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2393,37 +2385,40 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>10100112101</v>
+        <v>10100108101</v>
       </c>
       <c r="G44">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H44">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" ref="H44:H47" si="12">G44-5</f>
+        <v>13</v>
       </c>
       <c r="I44">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I44:I48" si="13">G44-H44</f>
         <v>5</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>3</v>
       </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
       <c r="N44">
-        <f>H44</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2434,40 +2429,37 @@
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45">
-        <v>10100112102</v>
+        <v>10100108102</v>
       </c>
       <c r="G45">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H45">
-        <f t="shared" si="8"/>
-        <v>10</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="I45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="K45">
         <v>3</v>
       </c>
       <c r="N45">
-        <f>H45</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2478,37 +2470,40 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F46">
-        <v>10100112103</v>
+        <v>10100108103</v>
       </c>
       <c r="G46">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H46">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="I46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
         <v>3</v>
       </c>
       <c r="N46">
-        <f>H46</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2519,39 +2514,37 @@
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F47">
-        <v>10100112104</v>
+        <v>10100108104</v>
       </c>
       <c r="G47">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <f t="shared" si="12"/>
+        <v>15</v>
       </c>
       <c r="I47">
-        <f t="shared" si="9"/>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="J47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N47">
-        <f>H47</f>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2562,36 +2555,39 @@
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F48">
-        <v>10100112105</v>
+        <v>10100108105</v>
       </c>
       <c r="G48">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H48">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I48">
-        <f>G48-H48</f>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
       <c r="N48">
-        <f>H48</f>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2602,36 +2598,36 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49">
+        <v>10100112106</v>
+      </c>
+      <c r="G49">
         <v>26</v>
       </c>
-      <c r="D49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" t="s">
-        <v>28</v>
-      </c>
-      <c r="F49">
-        <v>10100112105</v>
-      </c>
-      <c r="G49">
-        <v>20</v>
-      </c>
       <c r="H49">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49">
         <f>G49-H49</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
       </c>
       <c r="N49">
-        <f>H49</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
@@ -2642,40 +2638,36 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F50">
-        <v>10100108101</v>
+        <v>10100112101</v>
       </c>
       <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
         <v>18</v>
       </c>
-      <c r="H50">
-        <f t="shared" ref="H50:H53" si="10">G50-5</f>
-        <v>13</v>
-      </c>
       <c r="I50">
-        <f t="shared" ref="I50:I54" si="11">G50-H50</f>
-        <v>5</v>
+        <f>G50-H50</f>
+        <v>2</v>
       </c>
       <c r="J50">
         <v>1</v>
       </c>
-      <c r="K50">
-        <v>3</v>
-      </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="N50">
-        <f>H50</f>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
@@ -2686,37 +2678,40 @@
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F51">
-        <v>10100108102</v>
+        <v>10100112102</v>
       </c>
       <c r="G51">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
-        <v>7</v>
+        <f t="shared" ref="H51:H54" si="14">G51-5</f>
+        <v>13</v>
       </c>
       <c r="I51">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I51:I55" si="15">G51-H51</f>
         <v>5</v>
       </c>
       <c r="J51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>3</v>
       </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
       <c r="N51">
-        <f>H51</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
@@ -2727,40 +2722,37 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F52">
-        <v>10100108103</v>
+        <v>10100112103</v>
       </c>
       <c r="G52">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>7</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
+        <v>2</v>
+      </c>
+      <c r="K52">
         <v>3</v>
       </c>
       <c r="N52">
-        <f>H52</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
@@ -2771,37 +2763,40 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F53">
-        <v>10100108104</v>
+        <v>10100112104</v>
       </c>
       <c r="G53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>10</v>
       </c>
       <c r="I53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="J53">
-        <v>2</v>
-      </c>
-      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
         <v>3</v>
       </c>
       <c r="N53">
-        <f>H53</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -2812,39 +2807,37 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F54">
-        <v>10100108105</v>
+        <v>10100112105</v>
       </c>
       <c r="G54">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H54">
-        <v>11</v>
+        <f t="shared" si="14"/>
+        <v>15</v>
       </c>
       <c r="I54">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N54">
-        <f>H54</f>
-        <v>11</v>
+        <f t="shared" si="8"/>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -2855,36 +2848,39 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F55">
         <v>10100112106</v>
       </c>
       <c r="G55">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H55">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I55">
-        <f>G55-H55</f>
-        <v>5</v>
+        <f t="shared" si="15"/>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
       </c>
       <c r="N55">
-        <f>H55</f>
-        <v>21</v>
+        <f t="shared" si="8"/>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
@@ -2895,36 +2891,36 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56">
-        <v>10100112101</v>
+        <v>10100114101</v>
       </c>
       <c r="G56">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H56">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I56">
         <f>G56-H56</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
       </c>
       <c r="N56">
-        <f>H56</f>
-        <v>18</v>
+        <f t="shared" si="8"/>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
@@ -2935,40 +2931,36 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57">
-        <v>10100112102</v>
+        <v>10100114102</v>
       </c>
       <c r="G57">
+        <v>20</v>
+      </c>
+      <c r="H57">
         <v>18</v>
       </c>
-      <c r="H57">
-        <f t="shared" ref="H57:H60" si="12">G57-5</f>
-        <v>13</v>
-      </c>
       <c r="I57">
-        <f t="shared" ref="I57:I61" si="13">G57-H57</f>
-        <v>5</v>
+        <f>G57-H57</f>
+        <v>2</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="N57">
-        <f>H57</f>
-        <v>13</v>
+        <f t="shared" si="8"/>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -2979,37 +2971,40 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58">
-        <v>10100112103</v>
+        <v>10100114103</v>
       </c>
       <c r="G58">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H58">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" ref="H58:H61" si="16">G58-5</f>
+        <v>13</v>
       </c>
       <c r="I58">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="I58:I61" si="17">G58-H58</f>
         <v>5</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58">
         <v>3</v>
       </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
       <c r="N58">
-        <f>H58</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3020,40 +3015,37 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59">
-        <v>10100112104</v>
+        <v>10100114104</v>
       </c>
       <c r="G59">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H59">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="16"/>
+        <v>7</v>
       </c>
       <c r="I59">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="K59">
         <v>3</v>
       </c>
       <c r="N59">
-        <f>H59</f>
-        <v>10</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
@@ -3064,37 +3056,40 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60">
-        <v>10100112105</v>
+        <v>10100114105</v>
       </c>
       <c r="G60">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H60">
-        <f t="shared" si="12"/>
-        <v>15</v>
+        <f t="shared" si="16"/>
+        <v>10</v>
       </c>
       <c r="I60">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="J60">
-        <v>2</v>
-      </c>
-      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
         <v>3</v>
       </c>
       <c r="N60">
-        <f>H60</f>
-        <v>15</v>
+        <f t="shared" si="8"/>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
@@ -3105,288 +3100,36 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F61">
-        <v>10100112106</v>
+        <v>10100114106</v>
       </c>
       <c r="G61">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H61">
-        <v>11</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
       <c r="I61">
-        <f t="shared" si="13"/>
-        <v>3</v>
+        <f t="shared" si="17"/>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N61">
-        <f>H61</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2025</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>35</v>
-      </c>
-      <c r="D62" t="s">
-        <v>36</v>
-      </c>
-      <c r="E62" t="s">
-        <v>37</v>
-      </c>
-      <c r="F62">
-        <v>10100114101</v>
-      </c>
-      <c r="G62">
-        <v>26</v>
-      </c>
-      <c r="H62">
-        <v>21</v>
-      </c>
-      <c r="I62">
-        <f>G62-H62</f>
-        <v>5</v>
-      </c>
-      <c r="J62">
-        <v>2</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="N62">
-        <f>H62</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2025</v>
-      </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" t="s">
-        <v>37</v>
-      </c>
-      <c r="F63">
-        <v>10100114102</v>
-      </c>
-      <c r="G63">
-        <v>20</v>
-      </c>
-      <c r="H63">
-        <v>18</v>
-      </c>
-      <c r="I63">
-        <f>G63-H63</f>
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <f>H63</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2025</v>
-      </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E64" t="s">
-        <v>37</v>
-      </c>
-      <c r="F64">
-        <v>10100114103</v>
-      </c>
-      <c r="G64">
-        <v>18</v>
-      </c>
-      <c r="H64">
-        <f t="shared" ref="H64:H67" si="14">G64-5</f>
-        <v>13</v>
-      </c>
-      <c r="I64">
-        <f t="shared" ref="I64:I67" si="15">G64-H64</f>
-        <v>5</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <f>H64</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2025</v>
-      </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" t="s">
-        <v>36</v>
-      </c>
-      <c r="E65" t="s">
-        <v>37</v>
-      </c>
-      <c r="F65">
-        <v>10100114104</v>
-      </c>
-      <c r="G65">
-        <v>12</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J65">
-        <v>2</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-      <c r="N65">
-        <f>H65</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2025</v>
-      </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D66" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" t="s">
-        <v>37</v>
-      </c>
-      <c r="F66">
-        <v>10100114105</v>
-      </c>
-      <c r="G66">
-        <v>15</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="I66">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>3</v>
-      </c>
-      <c r="N66">
-        <f>H66</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2025</v>
-      </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>35</v>
-      </c>
-      <c r="D67" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67">
-        <v>10100114106</v>
-      </c>
-      <c r="G67">
-        <v>20</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="14"/>
-        <v>15</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="J67">
-        <v>2</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="N67">
-        <f>H67</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
     </row>
